--- a/数据整理/stocks/A股/创业板/300373-扬杰科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300373-扬杰科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160143</t>
+          <t>710001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方创业板2年定期开放混合</t>
+          <t>富安达优势成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>95.86</t>
+          <t>11.09</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4747</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000242</t>
+          <t>160143</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城策略精选</t>
+          <t>南方创业板2年定期开放混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>8.73</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>95.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2977</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>210002</t>
+          <t>210009</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金鹰红利价值混合</t>
+          <t>金鹰核心资源混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>74.22</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2221</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>710001</t>
+          <t>000242</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富安达优势成长混合</t>
+          <t>景顺长城策略精选</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>210009</t>
+          <t>008842</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金鹰核心资源混合</t>
+          <t>同泰远见灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.93</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008842</t>
+          <t>210002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>同泰远见灵活配置混合A</t>
+          <t>金鹰红利价值混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>24.50</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>74.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -670,15 +740,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>24.50</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1.61</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -693,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,15 +794,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -734,26 +824,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004211</t>
+          <t>210009</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰周期优选灵活配置混合</t>
+          <t>金鹰核心资源混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>100.41</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.96</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2246</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -772,15 +872,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>77.81</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.78</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1697</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -790,26 +900,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>210002</t>
+          <t>168105</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金鹰红利价值混合</t>
+          <t>九泰泰富定增主题灵活配置混合型</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>79.31</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.96</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1381</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -818,26 +938,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>210009</t>
+          <t>009557</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金鹰核心资源混合</t>
+          <t>申万菱信创业板量化精选股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -846,26 +976,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>168105</t>
+          <t>009531</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>九泰泰富定增主题灵活配置混合型</t>
+          <t>九泰锐和18个月定期开放混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>87.23</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>56.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0990</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -874,25 +1014,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009531</t>
+          <t>210002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>九泰锐和18个月定期开放混合</t>
+          <t>金鹰红利价值混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>56.07</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009557</t>
+          <t>004211</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>申万菱信创业板量化精选股票A</t>
+          <t>金鹰周期优选灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.12</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
+          <t>100.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -940,15 +1100,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>92.12</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2.69</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300373-扬杰科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300373-扬杰科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,706 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>60.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3152</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>168105</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>九泰泰富定增主题灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2212</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009531</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>九泰锐和18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>67.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1580</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1213</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003586</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>42.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004833</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>41.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003587</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>42.41</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004834</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>41.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300373-扬杰科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300373-扬杰科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1828,4 +1829,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1291</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1239</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009531</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>九泰锐和18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1206</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300373-扬杰科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300373-扬杰科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2113,4 +2114,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300373-扬杰科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300373-扬杰科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2122,7 +2123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2133,17 +2134,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2153,14 +2174,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.53</v>
+          <t>007340</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9752</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2169,14 +2212,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.04</v>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8565</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2185,14 +2250,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.79</v>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7808</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2201,13 +2288,1405 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>310328</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信新动力混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7595</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6543</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011322</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6072</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4950</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001576</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3709</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>610001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信达澳银领先增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2929</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2907</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2681</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007141</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>70.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2227</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011800</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2189</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1992</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1801</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1592</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1529</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006424</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1466</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005729</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002577</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方新兴龙头灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012987</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>37.80</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006425</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.77</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007341</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012988</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>37.80</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007142</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>70.11</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005090</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>020033</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>020034</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005091</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>37</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.619999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.19</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300373-扬杰科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300373-扬杰科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3585,7 +3586,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3596,17 +3597,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3616,14 +3637,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>37</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.619999999999999</v>
+          <t>009318</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7180</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3632,14 +3675,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.53</v>
+          <t>009644</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>74.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1345</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3648,14 +3713,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.04</v>
+          <t>005730</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>63.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9622</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -3664,14 +3751,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.79</v>
+          <t>001576</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>44.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.6561</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -3680,13 +3789,3963 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>000603</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>71.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0815</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009474</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰致远优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>43.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9630</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009645</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>37.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5704</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007340</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>28.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4493</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011322</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2812</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1366</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011704</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9405</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013175</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海富通碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8205</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001513</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达信息产业混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>32.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7378</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009319</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.85</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6412</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010013</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达信息行业精选股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>25.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6370</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6336</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>69.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6292</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.61</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6220</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>700003</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安策略先锋混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>25.68</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5932</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>62.69</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4706</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013176</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>海富通碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4594</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501082</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>17.09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4546</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信达澳银精华配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>18.32</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>71.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4507</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519021</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰金鼎价值混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4212</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004390</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>15.43</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4166</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4027</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>501080</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中金科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3776</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006081</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3771</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>610001</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>信达澳银领先增长混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3614</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3429</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012816</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰致和两年封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3377</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>160143</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方创业板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2955</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013004</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2921</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>050022</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时回报混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>75.12</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2793</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>21.21</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2715</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2648</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012082</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时数字经济 18 个月封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2346</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011325</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2340</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011705</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2316</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007341</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2309</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2200</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012650</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2168</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004391</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2087</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>003593</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国泰景气行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2041</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009623</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>81.88</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1921</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006080</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1887</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008264</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南方ESG主题股票A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>86.94</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1862</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1835</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1810</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1768</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012987</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>63.80</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1741</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006424</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1725</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012332</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>上银鑫尚稳健回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>63.66</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1647</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010284</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1628</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008244</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>上银鑫卓混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1492</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1435</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012556</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长盛景气优选混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>10.87</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>47.88</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>55.24</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1378</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1344</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1333</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008786</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长城健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1205</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012988</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>63.80</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011446</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>75.86</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012651</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001105</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>信达澳银转型创新股票</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005729</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>南方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>83.28</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002577</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>南方新兴龙头灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>006425</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>007141</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>76.90</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>005075</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>富国研究量化精选混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009531</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>九泰锐和18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>70.75</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001626</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>国泰央企改革股票</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008265</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>南方ESG主题股票C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>86.94</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>007142</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>76.90</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009967</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>博时荣泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>81.82</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>75.86</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010313</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>上银鑫恒混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>162214</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>泰达宏利领先中小盘混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>519172</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>007152</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>诺德策略精选混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>55.24</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>012083</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>博时数字经济 18 个月封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>013005</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010285</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>012817</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>国泰致和两年封闭运作混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>62.78</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>519173</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>012333</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>上银鑫尚稳健回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>63.66</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>28.26</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>970083</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>东海证券海盈6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>014011</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>105</v>
+      </c>
+      <c r="D2" t="n">
+        <v>40.54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>37</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.619999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.19</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300373-扬杰科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300373-扬杰科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7628,7 +7629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7639,17 +7640,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7659,14 +7680,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>105</v>
-      </c>
-      <c r="D2" t="n">
-        <v>40.54</v>
+          <t>000603</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>72.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7039</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -7675,14 +7718,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>37</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.619999999999999</v>
+          <t>009644</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>68.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9380</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -7691,14 +7756,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>001576</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3612</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.53</v>
       </c>
     </row>
     <row r="5">
@@ -7707,14 +7794,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>17</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.04</v>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>141.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3494</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -7723,14 +7832,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>8</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.79</v>
+          <t>009645</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3526</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -7739,13 +7870,2723 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2245</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011704</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0069</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011322</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7001</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>610001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信达澳银领先增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4152</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519021</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰金鼎价值混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3962</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013004</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3664</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3663</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009596</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3041</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2855</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2802</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2796</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160143</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方创业板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2575</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2416</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2394</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011705</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2374</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010790</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15.41</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2296</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2291</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1815</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1755</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1698</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010881</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方宝顺混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>37.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1373</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1133</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011064</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方誉享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>30.04</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012920</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）A（人民币份额）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>70.75</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1001</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012921</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）A（美元现汇份额）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>70.75</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1001</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012922</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）C（人民币份额）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>70.75</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1001</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012923</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）C（美元现汇份额）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>70.75</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1001</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010791</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011746</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方誉浦一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>19.41</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>25.11</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013855</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实品质发现混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012696</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>83.34</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009597</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001626</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国泰央企改革股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011065</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>南方誉享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>013856</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>嘉实品质发现混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013005</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>710002</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>富安达策略精选混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>73.83</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012697</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011747</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>南方誉浦一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>25.11</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>015456</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>信达澳银领先增长混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011987</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>39.43</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010882</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>南方宝顺混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>014003</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>014061</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011988</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>39.43</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>014011</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>013153</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>73</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>105</v>
+      </c>
+      <c r="D3" t="n">
+        <v>40.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>37</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.619999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.19</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300373-扬杰科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300373-扬杰科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>22.62</v>
+        <v>6.18</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="D3" t="n">
-        <v>40.54</v>
+        <v>22.62</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="D4" t="n">
-        <v>8.619999999999999</v>
+        <v>40.54</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D5" t="n">
-        <v>0.53</v>
+        <v>8.619999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1.04</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>0.79</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>7</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.19</v>
       </c>
     </row>
@@ -600,6 +617,936 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001790</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4880</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001576</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4253</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011323</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5196</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>610001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信澳领先增长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3762</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3289</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011322</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2491</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011042</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1555</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1378</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001105</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信澳转型创新股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015440</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信澳智选先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>48.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013855</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实品质发现混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015456</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信澳领先增长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013856</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实品质发现混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015608</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信澳转型创新股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015441</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信澳智选先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>48.27</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013005</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011043</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>970050</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东海海睿锐意3个月定开灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3423,7 +4370,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7465,7 +8412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8927,7 +9874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9211,7 +10158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9913,7 +10860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10273,7 +11220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300373-扬杰科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300373-扬杰科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>6.18</v>
+        <v>7.88</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>22.62</v>
+        <v>6.18</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="D4" t="n">
-        <v>40.54</v>
+        <v>22.62</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="D5" t="n">
-        <v>8.619999999999999</v>
+        <v>40.54</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D6" t="n">
-        <v>0.53</v>
+        <v>8.619999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1.04</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>0.79</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>7</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.19</v>
       </c>
     </row>
@@ -616,7 +633,1523 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4747</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160143</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方创业板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2977</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2221</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001790</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8020</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001576</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2434</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010363</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信澳匠心臻选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0858</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011323</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6531</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>42.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4670</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>610001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信澳领先增长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4037</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013004</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3461</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011322</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1663</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011042</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1586</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001105</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信澳转型创新股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013855</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实品质发现混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015456</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信澳领先增长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013878</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>圆信永丰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011043</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013005</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013856</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实品质发现混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015608</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信澳转型创新股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009569</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浙商智多宝稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>26.91</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009568</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>浙商智多宝稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>26.91</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>970050</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东海海睿锐意3个月定开灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013879</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>圆信永丰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>015694</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>瑞达策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>76.83</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>016594</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>015695</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>瑞达策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>76.83</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1546,7 +3079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4370,7 +5903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8412,7 +9945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9874,7 +11407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10158,7 +11691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10860,7 +12393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11218,326 +12751,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>710001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富安达优势成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11.09</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4747</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>160143</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方创业板2年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.73</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>95.86</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2977</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>210009</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>金鹰核心资源混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.93</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2221</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000242</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺长城策略精选</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.68</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1176</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008842</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>同泰远见灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>24.50</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0399</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>210002</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>金鹰红利价值混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>74.22</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0355</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008843</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>同泰远见灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>24.50</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>